--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="placeholders" filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel Simonsen\TIMES-DK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -25,7 +30,9 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Gary Goldstein</author>
+    <author>Amit Kanudia</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0" shapeId="0">
@@ -142,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +159,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Amit Kanudia:</t>
         </r>
         <r>
           <rPr>
@@ -168,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,128 +341,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Allowed TsLvl
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ANNUAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Annual level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Seasonal level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Weekly level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (day and night level)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Needed only when one wants to override the VEDA default assignment
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +657,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0">
@@ -792,7 +681,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="B7" authorId="0" shapeId="0">
@@ -813,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
   <si>
     <t>CommName</t>
   </si>
@@ -875,12 +764,6 @@
     <t>Tcap</t>
   </si>
   <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
     <t>Vintage</t>
   </si>
   <si>
@@ -977,12 +860,6 @@
     <t>* Characterize processes</t>
   </si>
   <si>
-    <t>Primary Commodity Group</t>
-  </si>
-  <si>
-    <t>TimeSlice level of Process Activity</t>
-  </si>
-  <si>
     <t>Fixed layout table</t>
   </si>
   <si>
@@ -998,16 +875,154 @@
     <t>TPC</t>
   </si>
   <si>
-    <t xml:space="preserve">Transport Passengers Cars </t>
-  </si>
-  <si>
     <t>Mpass-km</t>
   </si>
   <si>
-    <t>TPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport Passengers Bus </t>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>TRADSL</t>
+  </si>
+  <si>
+    <t>Diesel TRA</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>TRACO2</t>
+  </si>
+  <si>
+    <t>CO2 Transport (no aviation and navigation)</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>TPCDSL1E</t>
+  </si>
+  <si>
+    <t>Mpkm</t>
+  </si>
+  <si>
+    <t>kvehicles</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>FT-TRADSL</t>
+  </si>
+  <si>
+    <t>Fuel Technology Diesel TRA</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>MEUR2012</t>
+  </si>
+  <si>
+    <t>kg/GJ</t>
+  </si>
+  <si>
+    <t>Occupancy - ppv</t>
+  </si>
+  <si>
+    <t>*CommDesc</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>COM_PROJ</t>
+  </si>
+  <si>
+    <t>Demand Value</t>
+  </si>
+  <si>
+    <t>*Units</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Annual Availability Factor</t>
+  </si>
+  <si>
+    <t>Existing Installed Capacity</t>
+  </si>
+  <si>
+    <t>kvehicle</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>ACT_COST</t>
+  </si>
+  <si>
+    <t>PRC_CAPACT</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
+  </si>
+  <si>
+    <t>PRC_RESID</t>
+  </si>
+  <si>
+    <t>NCAP_TLIFE</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~DEMO</t>
+  </si>
+  <si>
+    <t>Activity to commodity flow of a process</t>
+  </si>
+  <si>
+    <t>Lifetime of Process</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Transport Passengers Car Demand</t>
+  </si>
+  <si>
+    <t>MEURO2012/(kvehicle*km)</t>
+  </si>
+  <si>
+    <t>TRAGSL</t>
+  </si>
+  <si>
+    <t>Gasoline TRA</t>
+  </si>
+  <si>
+    <t>TPCGSL1E</t>
+  </si>
+  <si>
+    <t>Transport Passengers Car - Diesel Engine - Existing</t>
+  </si>
+  <si>
+    <t>Transport Passengers Car - Gasoline Engine - Existing</t>
+  </si>
+  <si>
+    <t>FT-TRAGSL</t>
+  </si>
+  <si>
+    <t>Fuel Technology Gasoline TRA</t>
   </si>
   <si>
     <t>TPR</t>
@@ -1016,375 +1031,164 @@
     <t>Transport Passengers Train</t>
   </si>
   <si>
-    <t>TFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport Freight Vans </t>
-  </si>
-  <si>
-    <t>Mton-km</t>
-  </si>
-  <si>
-    <t>TFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport Freight Truck </t>
-  </si>
-  <si>
-    <t>TFR</t>
-  </si>
-  <si>
-    <t>Transport Freight Rail</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>TRADSL</t>
-  </si>
-  <si>
-    <t>Diesel TRA</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>TRAGSL</t>
-  </si>
-  <si>
-    <t>Gasoline TRA</t>
-  </si>
-  <si>
-    <t>TRANGA</t>
-  </si>
-  <si>
-    <t>Nat. Gas TRA</t>
-  </si>
-  <si>
     <t>TRAELC</t>
   </si>
   <si>
     <t>Electricity TRA</t>
   </si>
   <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
-    <t>TRAH2G</t>
-  </si>
-  <si>
-    <t>Hydrogen TRA</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>TRACO2</t>
-  </si>
-  <si>
-    <t>CO2 Transport (no aviation and navigation)</t>
-  </si>
-  <si>
-    <t>kt</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>TPCDSL1E</t>
-  </si>
-  <si>
-    <t>Mpkm</t>
-  </si>
-  <si>
-    <t>kvehicles</t>
-  </si>
-  <si>
-    <t>TPCGSL1E</t>
-  </si>
-  <si>
-    <t>TPCELC1E</t>
-  </si>
-  <si>
-    <t>TPBDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Passengers Buses - Diesel Engine - Existing</t>
-  </si>
-  <si>
-    <t>TPRDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Passengers Rail - Diesel - Existing</t>
-  </si>
-  <si>
     <t>TPRELC1E</t>
   </si>
   <si>
     <t>Transport Passengers Rail - Electric - Existing</t>
   </si>
   <si>
-    <t>TFVDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Freight Van - Diesel Engine - Existing</t>
-  </si>
-  <si>
-    <t>Mtkm</t>
-  </si>
-  <si>
-    <t>TFTDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Freight Truck - Diesel Engine - Existing</t>
-  </si>
-  <si>
-    <t>TFRDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Freight Train - Diesel Engine - Existing</t>
-  </si>
-  <si>
-    <t>TFRELC1E</t>
-  </si>
-  <si>
-    <t>Transport Freight Train - Electric - Existing</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>FT-TRADSL</t>
-  </si>
-  <si>
-    <t>Fuel Technology Diesel TRA</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>FT-TRAGSL</t>
-  </si>
-  <si>
-    <t>Fuel Technology Gasoline TRA</t>
-  </si>
-  <si>
-    <t>FT-TRANGA</t>
-  </si>
-  <si>
-    <t>Fuel Technology Nat. Gas TRA</t>
-  </si>
-  <si>
     <t>FT-TRAELC</t>
   </si>
   <si>
     <t>Fuel Technology Electricity TRA</t>
   </si>
   <si>
-    <t>CURR</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>MEUR2012</t>
-  </si>
-  <si>
-    <t>kg/GJ</t>
-  </si>
-  <si>
-    <t>*CommDesc</t>
-  </si>
-  <si>
-    <t>*Unit</t>
-  </si>
-  <si>
-    <t>COM_PROJ</t>
-  </si>
-  <si>
-    <t>Demand Value</t>
-  </si>
-  <si>
-    <t>*Units</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Annual Availability Factor</t>
-  </si>
-  <si>
-    <t>Existing Installed Capacity</t>
-  </si>
-  <si>
-    <t>kvehicle</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>ACT_COST</t>
-  </si>
-  <si>
-    <t>PRC_CAPACT</t>
-  </si>
-  <si>
-    <t>NCAP_AFA</t>
-  </si>
-  <si>
-    <t>PRC_RESID</t>
-  </si>
-  <si>
-    <t>NCAP_TLIFE</t>
-  </si>
-  <si>
-    <t>PRC_ACTFLO~DEMO</t>
-  </si>
-  <si>
-    <t>Activity to commodity flow of a process</t>
-  </si>
-  <si>
-    <t>Lifetime of Process</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>TPAN</t>
-  </si>
-  <si>
-    <t>TPAI</t>
-  </si>
-  <si>
-    <t>Transport Passengers Aviation National</t>
-  </si>
-  <si>
-    <t>Transport Passengers Aviation International</t>
-  </si>
-  <si>
-    <t>TFAI</t>
-  </si>
-  <si>
-    <t>Transport Freight Aviation International</t>
-  </si>
-  <si>
-    <t>TRAKER</t>
-  </si>
-  <si>
-    <t>Kerosene TRA</t>
-  </si>
-  <si>
-    <t>TPANKER1E</t>
-  </si>
-  <si>
-    <t>TPAIKER1E</t>
-  </si>
-  <si>
-    <t>Transport Passengers Aviation National- Kerosene - Existing</t>
-  </si>
-  <si>
-    <t>Transport Passengers Aviation International- Kerosene - Existing</t>
-  </si>
-  <si>
-    <t>TFAIKER1E</t>
-  </si>
-  <si>
-    <t>FT-TRAKER</t>
-  </si>
-  <si>
-    <t>Fuel Technology Kerosene TRA</t>
-  </si>
-  <si>
-    <t>TPSN</t>
-  </si>
-  <si>
-    <t>TPSI</t>
-  </si>
-  <si>
-    <t>Transport Passengers Sea National</t>
-  </si>
-  <si>
-    <t>Transport Passengers Sea International</t>
-  </si>
-  <si>
-    <t>TFSN</t>
-  </si>
-  <si>
-    <t>TFSI</t>
-  </si>
-  <si>
-    <t>TRAHFO</t>
-  </si>
-  <si>
-    <t>Heavy Fuel Oil TRA</t>
-  </si>
-  <si>
-    <t>TPSIHFO1E</t>
-  </si>
-  <si>
-    <t>Transport Passengers Ship International- Heavy fuel oil - Existing</t>
-  </si>
-  <si>
-    <t>FT-TRAHFO</t>
-  </si>
-  <si>
-    <t>Fuel Technology Heavy Fuel Oil TRA</t>
-  </si>
-  <si>
-    <t>Transport Freight Sea International</t>
-  </si>
-  <si>
-    <t>Transport Freight Sea National</t>
-  </si>
-  <si>
-    <t>TFSIHFO1E</t>
-  </si>
-  <si>
-    <t>Occupancy/Load - ppv/tpv</t>
-  </si>
-  <si>
-    <t>Transport Passengers Ship National- Diesel - Existing</t>
-  </si>
-  <si>
-    <t>Transport Passengers Cars - Diesel Engine - Existing</t>
-  </si>
-  <si>
-    <t>Transport Passengers Cars - Otto Engine - Existing</t>
-  </si>
-  <si>
-    <t>Transport Passengers Cars - Electricity BEV- Existing</t>
-  </si>
-  <si>
-    <t>TPSNDSL1E</t>
-  </si>
-  <si>
-    <t>TFSNDSL1E</t>
-  </si>
-  <si>
-    <t>Transport Freight Ship National - Diesel - Existing</t>
-  </si>
-  <si>
-    <t>Transport Freight Ship International - Heavy Fuel Oil - Existing</t>
-  </si>
-  <si>
-    <t>Transport Freight Aviation International - Kerosene - Existing</t>
-  </si>
-  <si>
     <t>(Mvehicle*km)/PJ</t>
+  </si>
+  <si>
+    <t>ELCC</t>
+  </si>
+  <si>
+    <t>TRADSBL1</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 1- TRA</t>
+  </si>
+  <si>
+    <t>TRADSBL2</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 2- TRA</t>
+  </si>
+  <si>
+    <t>TRADSBL3</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 3- TRA</t>
+  </si>
+  <si>
+    <t>TRAGSBL1</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 1 - TRA</t>
+  </si>
+  <si>
+    <t>TRAGSBL2</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 2 - TRA</t>
+  </si>
+  <si>
+    <t>TRAGSBL3</t>
+  </si>
+  <si>
+    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 3 - TRA</t>
+  </si>
+  <si>
+    <t>FT-TRADSBLD1</t>
+  </si>
+  <si>
+    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 1</t>
+  </si>
+  <si>
+    <t>FT-TRADSBLD2</t>
+  </si>
+  <si>
+    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 2</t>
+  </si>
+  <si>
+    <t>FT-TRADSBLD3</t>
+  </si>
+  <si>
+    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 3</t>
+  </si>
+  <si>
+    <t>FT-TRAGSBLD1</t>
+  </si>
+  <si>
+    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 1</t>
+  </si>
+  <si>
+    <t>FT-TRAGSBLD2</t>
+  </si>
+  <si>
+    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 2</t>
+  </si>
+  <si>
+    <t>FT-TRAGSBLD3</t>
+  </si>
+  <si>
+    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 3</t>
+  </si>
+  <si>
+    <t>TRADSB</t>
+  </si>
+  <si>
+    <t>TRAGSB</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>Share~LO</t>
+  </si>
+  <si>
+    <t>Share~UP</t>
+  </si>
+  <si>
+    <t>Share~LO~0</t>
+  </si>
+  <si>
+    <t>Share~UP~0</t>
+  </si>
+  <si>
+    <t>FT-TRADSB</t>
+  </si>
+  <si>
+    <t>Fuel Technology Biodiesel TRA</t>
+  </si>
+  <si>
+    <t>Fuel Technology Bioethanol TRA</t>
+  </si>
+  <si>
+    <t>FT-TRAGSB</t>
+  </si>
+  <si>
+    <t>Biodiesel TRA</t>
+  </si>
+  <si>
+    <t>Bioethanol TRA</t>
+  </si>
+  <si>
+    <t>DSB2</t>
+  </si>
+  <si>
+    <t>GSB2</t>
+  </si>
+  <si>
+    <t>Biodiesel second generation</t>
+  </si>
+  <si>
+    <t>Gbioethanol second generation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="0.00000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1488,6 +1292,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1502,12 +1313,6 @@
       <b/>
       <sz val="20"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF1D3234"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1620,7 +1425,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1664,7 +1469,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1487,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,34 +1508,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2238,10 +2040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2262,19 +2064,19 @@
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="40"/>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="31"/>
     </row>
     <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="26"/>
@@ -2303,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>0</v>
@@ -2329,46 +2131,46 @@
     </row>
     <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -2379,13 +2181,13 @@
       <c r="B11" s="22"/>
       <c r="C11" s="2"/>
       <c r="D11" s="22" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -2393,16 +2195,18 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>66</v>
+      <c r="D12" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -2413,13 +2217,13 @@
       <c r="B13" s="22"/>
       <c r="C13" s="2"/>
       <c r="D13" s="22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -2430,13 +2234,13 @@
       <c r="B14" s="22"/>
       <c r="C14" s="2"/>
       <c r="D14" s="22" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -2445,15 +2249,15 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="22" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -2462,32 +2266,34 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="22"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="22"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="22" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -2496,15 +2302,15 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="22"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="22" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -2513,15 +2319,15 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="22"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="22" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -2530,15 +2336,15 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="22"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="22" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2547,15 +2353,15 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="22"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="22" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2564,15 +2370,15 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -2580,18 +2386,16 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="22" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -2600,15 +2404,15 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="22"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="22" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -2616,112 +2420,23 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2734,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2745,44 +2460,44 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>1</v>
@@ -2799,484 +2514,271 @@
       <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>178</v>
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>179</v>
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>180</v>
+        <v>112</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="22" t="s">
-        <v>181</v>
+      <c r="D17" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>105</v>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3289,47 +2791,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T55"/>
+  <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="E6" s="6"/>
@@ -3340,7 +2844,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
@@ -3351,12 +2855,12 @@
       <c r="L7" s="34"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="2:20" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>5</v>
@@ -3365,105 +2869,132 @@
         <v>6</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="K9" s="27" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="2:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="49"/>
+        <v>116</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>99</v>
+      </c>
       <c r="I10" s="49" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="str">
         <f>SEC_Processes!D9</f>
         <v>TPCDSL1E</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>SEC_Processes!E9</f>
-        <v>Transport Passengers Cars - Diesel Engine - Existing</v>
+        <v>Transport Passengers Car - Diesel Engine - Existing</v>
       </c>
       <c r="D11" s="22" t="str">
-        <f>SEC_Comm!D23</f>
+        <f>SEC_Comm!D14</f>
         <v>TRADSL</v>
       </c>
       <c r="E11" s="22" t="str">
@@ -3471,10 +3002,11 @@
         <v>TPC</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G11" s="44">
-        <v>296</v>
+        <f>1/2.69323220751296*10^3</f>
+        <v>371.30106984850022</v>
       </c>
       <c r="H11" s="45">
         <v>4.655E-5</v>
@@ -3486,42 +3018,45 @@
         <v>1E-3</v>
       </c>
       <c r="K11" s="44">
-        <f>E43/(L11*M11+L12*M12+L13*M13)/J11</f>
-        <v>15236.082406806019</v>
+        <v>15373.2</v>
       </c>
       <c r="L11" s="41">
-        <v>591.64300000000003</v>
+        <v>433.7</v>
       </c>
       <c r="M11" s="42">
         <v>1.55</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N11" s="22"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="str">
         <f>SEC_Processes!D10</f>
         <v>TPCGSL1E</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>SEC_Processes!E10</f>
-        <v>Transport Passengers Cars - Otto Engine - Existing</v>
+        <v>Transport Passengers Car - Gasoline Engine - Existing</v>
       </c>
       <c r="D12" s="22" t="str">
-        <f>SEC_Comm!D24</f>
+        <f>SEC_Comm!D15</f>
         <v>TRAGSL</v>
       </c>
       <c r="E12" s="22" t="str">
-        <f>SEC_Comm!$D$10</f>
+        <f>E11</f>
         <v>TPC</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G12" s="44">
-        <v>427.43</v>
+        <v>392</v>
       </c>
       <c r="H12" s="45">
+        <f>H11</f>
         <v>4.655E-5</v>
       </c>
       <c r="I12" s="22">
@@ -3532,720 +3067,574 @@
       </c>
       <c r="K12" s="44">
         <f>K11</f>
-        <v>15236.082406806019</v>
+        <v>15373.2</v>
       </c>
       <c r="L12" s="41">
-        <v>1623.069</v>
+        <f>1686349/1000</f>
+        <v>1686.3489999999999</v>
       </c>
       <c r="M12" s="42">
+        <f>M11</f>
         <v>1.55</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N12" s="22"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="str">
         <f>SEC_Processes!D11</f>
-        <v>TPCELC1E</v>
+        <v>TPRELC1E</v>
       </c>
       <c r="C13" s="22" t="str">
         <f>SEC_Processes!E11</f>
-        <v>Transport Passengers Cars - Electricity BEV- Existing</v>
+        <v>Transport Passengers Rail - Electric - Existing</v>
       </c>
       <c r="D13" s="22" t="str">
-        <f>SEC_Comm!D26</f>
+        <f>SEC_Comm!D16</f>
         <v>TRAELC</v>
       </c>
       <c r="E13" s="22" t="str">
-        <f>SEC_Comm!$D$10</f>
-        <v>TPC</v>
+        <f>SEC_Comm!D11</f>
+        <v>TPR</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G13" s="44">
-        <f>1/0.495*10^3</f>
-        <v>2020.2020202020203</v>
+        <f>1/48.0351078270692*10^3</f>
+        <v>20.818106698127792</v>
       </c>
       <c r="H13" s="45">
-        <v>4.655E-5</v>
+        <v>3.8969000000000005E-3</v>
       </c>
       <c r="I13" s="22">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J13" s="22">
         <v>1E-3</v>
       </c>
-      <c r="K13" s="44">
-        <f>K12</f>
-        <v>15236.082406806019</v>
-      </c>
-      <c r="L13" s="41">
-        <v>0.996</v>
+      <c r="K13" s="22">
+        <v>145000</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0.28299999999999997</v>
       </c>
       <c r="M13" s="42">
-        <v>1.55</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="56"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+        <v>74.36</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="str">
         <f>SEC_Processes!D12</f>
-        <v>TPBDSL1E</v>
+        <v>FT-TRADSL</v>
       </c>
       <c r="C14" s="22" t="str">
         <f>SEC_Processes!E12</f>
-        <v>Transport Passengers Buses - Diesel Engine - Existing</v>
+        <v>Fuel Technology Diesel TRA</v>
       </c>
       <c r="D14" s="22" t="str">
-        <f>SEC_Comm!D23</f>
+        <f>RIGHT(SEC_Comm!D14,3)</f>
+        <v>DSL</v>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f>SEC_Comm!D14</f>
         <v>TRADSL</v>
       </c>
-      <c r="E14" s="22" t="str">
-        <f>SEC_Comm!D11</f>
-        <v>TPB</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="44">
-        <v>142.56</v>
-      </c>
-      <c r="H14" s="45">
-        <v>2.3940000000000002E-4</v>
-      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="22">
-        <v>8</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K14" s="44">
-        <v>46175.971080848401</v>
-      </c>
-      <c r="L14" s="41">
-        <v>13.102558565670419</v>
-      </c>
-      <c r="M14" s="42">
-        <f>E44/(K14*L14)/J14</f>
-        <v>14.179213229353294</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="str">
         <f>SEC_Processes!D13</f>
-        <v>TPRDSL1E</v>
+        <v>FT-TRAGSL</v>
       </c>
       <c r="C15" s="22" t="str">
         <f>SEC_Processes!E13</f>
-        <v>Transport Passengers Rail - Diesel - Existing</v>
+        <v>Fuel Technology Gasoline TRA</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
+        <f>RIGHT(SEC_Comm!D15,3)</f>
+        <v>GSL</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>SEC_Comm!$D$12</f>
-        <v>TPR</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="44">
-        <v>14.505000000000001</v>
-      </c>
-      <c r="H15" s="45">
-        <v>3.8969000000000005E-3</v>
-      </c>
+        <f>SEC_Comm!D15</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
       <c r="I15" s="22">
-        <v>30</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K15" s="22">
-        <v>145000</v>
-      </c>
-      <c r="L15" s="41">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="M15" s="42">
-        <f>E45/(K15*L15+K16*L16)/J15</f>
-        <v>74.358394573205203</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="str">
         <f>SEC_Processes!D14</f>
-        <v>TPRELC1E</v>
+        <v>FT-TRAELC</v>
       </c>
       <c r="C16" s="22" t="str">
         <f>SEC_Processes!E14</f>
-        <v>Transport Passengers Rail - Electric - Existing</v>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f>SEC_Comm!D26</f>
+        <v>Fuel Technology Electricity TRA</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="22" t="str">
+        <f>SEC_Comm!D16</f>
         <v>TRAELC</v>
       </c>
-      <c r="E16" s="22" t="str">
-        <f>SEC_Comm!D12</f>
-        <v>TPR</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="44">
-        <v>30.32</v>
-      </c>
-      <c r="H16" s="45">
-        <v>3.8969000000000005E-3</v>
-      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16" s="22">
-        <v>30</v>
-      </c>
-      <c r="J16" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K16" s="22">
-        <v>145000</v>
-      </c>
-      <c r="L16" s="41">
-        <v>0.28300000000000003</v>
-      </c>
-      <c r="M16" s="42">
-        <f>M15</f>
-        <v>74.358394573205203</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="str">
         <f>SEC_Processes!D15</f>
-        <v>TPANKER1E</v>
+        <v>FT-TRADSB</v>
       </c>
       <c r="C17" s="22" t="str">
         <f>SEC_Processes!E15</f>
-        <v>Transport Passengers Aviation National- Kerosene - Existing</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>SEC_Comm!D28</f>
-        <v>TRAKER</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>SEC_Comm!D13</f>
-        <v>TPAN</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="44">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="H17" s="45">
-        <v>4.0971295478940802E-2</v>
-      </c>
+        <v>Fuel Technology Biodiesel TRA</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <v>30</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1750000</v>
-      </c>
-      <c r="L17" s="51">
-        <f>(E46)/(J17*K17*M17)</f>
-        <v>8.7380952380952375E-3</v>
-      </c>
-      <c r="M17" s="42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="str">
         <f>SEC_Processes!D16</f>
-        <v>TPAIKER1E</v>
+        <v>FT-TRAGSB</v>
       </c>
       <c r="C18" s="22" t="str">
         <f>SEC_Processes!E16</f>
-        <v>Transport Passengers Aviation International- Kerosene - Existing</v>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>SEC_Comm!D28</f>
-        <v>TRAKER</v>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>SEC_Comm!D14</f>
-        <v>TPAI</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="44">
-        <v>13.311</v>
-      </c>
-      <c r="H18" s="45">
-        <v>4.0971295478940802E-2</v>
-      </c>
+        <v>Fuel Technology Bioethanol TRA</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="I18" s="22">
-        <v>30</v>
-      </c>
-      <c r="J18" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K18" s="22">
-        <v>2800000</v>
-      </c>
-      <c r="L18" s="51">
-        <f>(E47)/(J18*K18*M18)</f>
-        <v>0.16426674248685796</v>
-      </c>
-      <c r="M18" s="42">
-        <v>85.52291970905415</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="str">
         <f>SEC_Processes!D17</f>
-        <v>TPSNDSL1E</v>
+        <v>FT-TRADSBLD1</v>
       </c>
       <c r="C19" s="22" t="str">
         <f>SEC_Processes!E17</f>
-        <v>Transport Passengers Ship National- Diesel - Existing</v>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f>SEC_Comm!D15</f>
-        <v>TPSN</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="44">
-        <v>3.181</v>
-      </c>
-      <c r="H19" s="45">
-        <v>2.1516302388771202E-3</v>
-      </c>
+        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22"/>
       <c r="I19" s="22">
-        <v>28</v>
-      </c>
-      <c r="J19" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K19" s="44">
-        <v>99555.006368801944</v>
-      </c>
-      <c r="L19" s="51">
-        <f>E48/(M19*K19*J19)</f>
-        <v>5.891037819612719E-2</v>
-      </c>
-      <c r="M19" s="42">
-        <v>30.022900555247588</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="str">
+        <v>100</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
+        <v>2015</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>5</v>
+      </c>
+      <c r="R20" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="22" t="str">
         <f>SEC_Processes!D18</f>
-        <v>TPSIHFO1E</v>
-      </c>
-      <c r="C20" s="22" t="str">
+        <v>FT-TRADSBLD2</v>
+      </c>
+      <c r="C21" s="22" t="str">
         <f>SEC_Processes!E18</f>
-        <v>Transport Passengers Ship International- Heavy fuel oil - Existing</v>
-      </c>
-      <c r="D20" s="22" t="str">
-        <f>SEC_Comm!D29</f>
-        <v>TRAHFO</v>
-      </c>
-      <c r="E20" s="22" t="str">
-        <f>SEC_Comm!D16</f>
-        <v>TPSI</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="44">
-        <v>4.306</v>
-      </c>
-      <c r="H20" s="45">
-        <v>3.7164522307877499E-3</v>
-      </c>
-      <c r="I20" s="22">
-        <v>28</v>
-      </c>
-      <c r="J20" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K20" s="44">
-        <v>220565.19204237123</v>
-      </c>
-      <c r="L20" s="51">
-        <f>E49/(M20*K20*J20)</f>
-        <v>2.0355300959244243E-2</v>
-      </c>
-      <c r="M20" s="42">
-        <v>325.74280920015593</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="str">
+        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 2</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <v>100</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="30">
+        <v>0</v>
+      </c>
+      <c r="P22" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>5</v>
+      </c>
+      <c r="R22" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="22" t="str">
         <f>SEC_Processes!D19</f>
-        <v>TFVDSL1E</v>
-      </c>
-      <c r="C21" s="22" t="str">
+        <v>FT-TRADSBLD3</v>
+      </c>
+      <c r="C23" s="22" t="str">
         <f>SEC_Processes!E19</f>
-        <v>Transport Freight Van - Diesel Engine - Existing</v>
-      </c>
-      <c r="D21" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
-      <c r="E21" s="22" t="str">
-        <f>SEC_Comm!D17</f>
-        <v>TFV</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="44">
-        <v>176.76</v>
-      </c>
-      <c r="H21" s="45">
-        <v>5.5859999999999997E-5</v>
-      </c>
-      <c r="I21" s="22">
-        <v>6</v>
-      </c>
-      <c r="J21" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K21" s="22">
-        <v>17400</v>
-      </c>
-      <c r="L21" s="41">
-        <v>460.84099999999995</v>
-      </c>
-      <c r="M21" s="42">
-        <f>E50/(K21*L21)/J21</f>
-        <v>0.4568110072222531</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="str">
+        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 3</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
+        <v>100</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22">
+        <v>2035</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>5</v>
+      </c>
+      <c r="R24" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="str">
         <f>SEC_Processes!D20</f>
-        <v>TFTDSL1E</v>
-      </c>
-      <c r="C22" s="22" t="str">
+        <v>FT-TRAGSBLD1</v>
+      </c>
+      <c r="C25" s="22" t="str">
         <f>SEC_Processes!E20</f>
-        <v>Transport Freight Truck - Diesel Engine - Existing</v>
-      </c>
-      <c r="D22" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
-      <c r="E22" s="22" t="str">
-        <f>SEC_Comm!D18</f>
-        <v>TFT</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="44">
-        <v>124.29</v>
-      </c>
-      <c r="H22" s="45">
-        <v>3.3011933174224346E-4</v>
-      </c>
-      <c r="I22" s="22">
-        <v>6</v>
-      </c>
-      <c r="J22" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K22" s="22">
-        <v>62850</v>
-      </c>
-      <c r="L22" s="41">
-        <v>32.192</v>
-      </c>
-      <c r="M22" s="42">
-        <v>9.7618710537829223</v>
-      </c>
-      <c r="P22" s="57"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="str">
+        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 1</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
+        <v>100</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22">
+        <v>2015</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>5</v>
+      </c>
+      <c r="R26" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="str">
         <f>SEC_Processes!D21</f>
-        <v>TFRDSL1E</v>
-      </c>
-      <c r="C23" s="22" t="str">
+        <v>FT-TRAGSBLD2</v>
+      </c>
+      <c r="C27" s="22" t="str">
         <f>SEC_Processes!E21</f>
-        <v>Transport Freight Train - Diesel Engine - Existing</v>
-      </c>
-      <c r="D23" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
-      <c r="E23" s="22" t="str">
-        <f>SEC_Comm!$D$19</f>
-        <v>TFR</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="44">
-        <v>14.505000000000001</v>
-      </c>
-      <c r="H23" s="45">
-        <v>6.3E-5</v>
-      </c>
-      <c r="I23" s="22">
-        <v>30</v>
-      </c>
-      <c r="J23" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K23" s="22">
-        <v>26000</v>
-      </c>
-      <c r="L23" s="41">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M23" s="42">
-        <f>E52/(K23*L23+K24*L24)/J23</f>
-        <v>149.83974358974359</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="22" t="str">
-        <f>SEC_Processes!D22</f>
-        <v>TFRELC1E</v>
-      </c>
-      <c r="C24" s="22" t="str">
-        <f>SEC_Processes!E22</f>
-        <v>Transport Freight Train - Electric - Existing</v>
-      </c>
-      <c r="D24" s="22" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>TRAELC</v>
-      </c>
-      <c r="E24" s="22" t="str">
-        <f>SEC_Comm!$D$19</f>
-        <v>TFR</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="44">
-        <v>30.32</v>
-      </c>
-      <c r="H24" s="45">
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="I24" s="22">
-        <v>30</v>
-      </c>
-      <c r="J24" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K24" s="22">
-        <v>26000</v>
-      </c>
-      <c r="L24" s="41">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="M24" s="42">
-        <f>M23</f>
-        <v>149.83974358974359</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="str">
-        <f>SEC_Processes!D23</f>
-        <v>TFAIKER1E</v>
-      </c>
-      <c r="C25" s="22" t="str">
-        <f>SEC_Processes!E23</f>
-        <v>Transport Freight Aviation International - Kerosene - Existing</v>
-      </c>
-      <c r="D25" s="22" t="str">
-        <f>SEC_Comm!D28</f>
-        <v>TRAKER</v>
-      </c>
-      <c r="E25" s="22" t="str">
-        <f>SEC_Comm!D20</f>
-        <v>TFAI</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="44">
-        <v>13.311</v>
-      </c>
-      <c r="H25" s="45">
-        <v>4.0971295478940802E-2</v>
-      </c>
-      <c r="I25" s="22">
-        <v>30</v>
-      </c>
-      <c r="J25" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="K25" s="22">
-        <v>2800000</v>
-      </c>
-      <c r="L25" s="54">
-        <f>(E53)/(J25*K25*M25)</f>
-        <v>2.8258928571428571E-3</v>
-      </c>
-      <c r="M25" s="42">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="str">
-        <f>SEC_Processes!D24</f>
-        <v>TFSNDSL1E</v>
-      </c>
-      <c r="C26" s="22" t="str">
-        <f>SEC_Processes!E24</f>
-        <v>Transport Freight Ship National - Diesel - Existing</v>
-      </c>
-      <c r="D26" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
-      <c r="E26" s="22" t="str">
-        <f>SEC_Comm!D21</f>
-        <v>TFSN</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="44">
-        <v>3.181</v>
-      </c>
-      <c r="H26" s="45">
-        <v>2.1516302388771202E-3</v>
-      </c>
-      <c r="I26" s="22">
-        <v>28</v>
-      </c>
-      <c r="J26" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K26" s="44">
-        <v>99555.006368801958</v>
-      </c>
-      <c r="L26" s="51">
-        <f>139/1000</f>
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="M26" s="44">
-        <f>E54/(J26*K26*L26)</f>
-        <v>147.2740652467256</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="str">
-        <f>SEC_Processes!D25</f>
-        <v>TFSIHFO1E</v>
-      </c>
-      <c r="C27" s="22" t="str">
-        <f>SEC_Processes!E25</f>
-        <v>Transport Freight Ship International - Heavy Fuel Oil - Existing</v>
-      </c>
-      <c r="D27" s="22" t="str">
-        <f>SEC_Comm!D29</f>
-        <v>TRAHFO</v>
-      </c>
-      <c r="E27" s="22" t="str">
-        <f>SEC_Comm!D22</f>
-        <v>TFSI</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="44">
-        <v>4.306</v>
-      </c>
-      <c r="H27" s="45">
-        <v>3.7164522307877547E-3</v>
-      </c>
+        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 2</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22"/>
       <c r="I27" s="22">
-        <v>28</v>
-      </c>
-      <c r="J27" s="22">
-        <f>10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="K27" s="44">
-        <v>220565.19204237123</v>
-      </c>
-      <c r="L27" s="51">
-        <f>401/1000</f>
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="M27" s="44">
-        <f>E55/(J27*K27*L27)</f>
-        <v>544.29192855282554</v>
-      </c>
-      <c r="O27" s="52"/>
-      <c r="Q27" s="53"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="str">
-        <f>SEC_Processes!D26</f>
-        <v>FT-TRADSL</v>
-      </c>
-      <c r="C28" s="22" t="str">
-        <f>SEC_Processes!E26</f>
-        <v>Fuel Technology Diesel TRA</v>
-      </c>
-      <c r="D28" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D23,3)</f>
-        <v>DSL</v>
-      </c>
-      <c r="E28" s="22" t="str">
-        <f>SEC_Comm!D23</f>
-        <v>TRADSL</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="22">
-        <v>1</v>
-      </c>
+      <c r="G28" s="22"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="22">
-        <v>100</v>
-      </c>
+      <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N28" s="22"/>
+      <c r="O28" s="30">
+        <v>0</v>
+      </c>
+      <c r="P28" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>5</v>
+      </c>
+      <c r="R28" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="str">
-        <f>SEC_Processes!D27</f>
-        <v>FT-TRAGSL</v>
+        <f>SEC_Processes!D22</f>
+        <v>FT-TRAGSBLD3</v>
       </c>
       <c r="C29" s="22" t="str">
-        <f>SEC_Processes!E27</f>
-        <v>Fuel Technology Gasoline TRA</v>
-      </c>
-      <c r="D29" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D24,3)</f>
-        <v>GSL</v>
-      </c>
-      <c r="E29" s="22" t="str">
-        <f>SEC_Comm!D24</f>
-        <v>TRAGSL</v>
+        <f>SEC_Processes!E22</f>
+        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 3</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22">
@@ -4259,391 +3648,113 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="str">
-        <f>SEC_Processes!D28</f>
-        <v>FT-TRANGA</v>
-      </c>
-      <c r="C30" s="22" t="str">
-        <f>SEC_Processes!E28</f>
-        <v>Fuel Technology Nat. Gas TRA</v>
-      </c>
-      <c r="D30" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D25,3)</f>
-        <v>NGA</v>
-      </c>
-      <c r="E30" s="22" t="str">
-        <f>SEC_Comm!D25</f>
-        <v>TRANGA</v>
-      </c>
+      <c r="N29" s="22">
+        <v>2035</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="22">
-        <v>1</v>
-      </c>
+      <c r="G30" s="22"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="22">
-        <v>100</v>
-      </c>
+      <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="str">
-        <f>SEC_Processes!D29</f>
-        <v>FT-TRAELC</v>
-      </c>
-      <c r="C31" s="22" t="str">
-        <f>SEC_Processes!E29</f>
-        <v>Fuel Technology Electricity TRA</v>
-      </c>
-      <c r="D31" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D26,3)&amp;"C"</f>
-        <v>ELCC</v>
-      </c>
-      <c r="E31" s="22" t="str">
-        <f>SEC_Comm!D26</f>
-        <v>TRAELC</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22">
+      <c r="N30" s="22"/>
+      <c r="O30" s="30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="30">
         <v>1</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22">
-        <v>100</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="str">
-        <f>SEC_Processes!D30</f>
-        <v>FT-TRAKER</v>
-      </c>
-      <c r="C32" s="22" t="str">
-        <f>SEC_Processes!E30</f>
-        <v>Fuel Technology Kerosene TRA</v>
-      </c>
-      <c r="D32" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D28,3)</f>
-        <v>KER</v>
-      </c>
-      <c r="E32" s="22" t="str">
-        <f>SEC_Comm!D28</f>
-        <v>TRAKER</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22">
-        <v>100</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="str">
-        <f>SEC_Processes!D31</f>
-        <v>FT-TRAHFO</v>
-      </c>
-      <c r="C33" s="22" t="str">
-        <f>SEC_Processes!E31</f>
-        <v>Fuel Technology Heavy Fuel Oil TRA</v>
-      </c>
-      <c r="D33" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D29,3)</f>
-        <v>HFO</v>
-      </c>
-      <c r="E33" s="22" t="str">
-        <f>SEC_Comm!D29</f>
-        <v>TRAHFO</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22">
-        <v>1</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22">
-        <v>100</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-    </row>
-    <row r="37" spans="2:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B37" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
+      <c r="Q30" s="30">
+        <v>5</v>
+      </c>
+      <c r="R30" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="25" t="s">
+      <c r="C35" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="str">
+      <c r="E36" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="str">
         <f>SEC_Comm!D10</f>
         <v>TPC</v>
       </c>
-      <c r="C43" s="30" t="str">
+      <c r="C37" s="30" t="str">
         <f>SEC_Comm!E10</f>
-        <v xml:space="preserve">Transport Passengers Cars </v>
-      </c>
-      <c r="D43" s="30" t="str">
+        <v>Transport Passengers Car Demand</v>
+      </c>
+      <c r="D37" s="30" t="str">
         <f>SEC_Comm!F10</f>
         <v>Mpass-km</v>
       </c>
-      <c r="E43" s="44">
-        <v>52326</v>
-      </c>
-      <c r="I43" s="55"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="str">
+      <c r="E37" s="43">
+        <v>50517.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="str">
         <f>SEC_Comm!D11</f>
-        <v>TPB</v>
-      </c>
-      <c r="C44" s="30" t="str">
+        <v>TPR</v>
+      </c>
+      <c r="C38" s="30" t="str">
         <f>SEC_Comm!E11</f>
-        <v xml:space="preserve">Transport Passengers Bus </v>
-      </c>
-      <c r="D44" s="30" t="str">
+        <v>Transport Passengers Train</v>
+      </c>
+      <c r="D38" s="30" t="str">
         <f>SEC_Comm!F11</f>
         <v>Mpass-km</v>
       </c>
-      <c r="E44" s="44">
-        <v>8578.7553069392325</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="str">
-        <f>SEC_Comm!D12</f>
-        <v>TPR</v>
-      </c>
-      <c r="C45" s="30" t="str">
-        <f>SEC_Comm!E12</f>
-        <v>Transport Passengers Train</v>
-      </c>
-      <c r="D45" s="30" t="str">
-        <f>SEC_Comm!F12</f>
-        <v>Mpass-km</v>
-      </c>
-      <c r="E45" s="44">
-        <v>6577</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="str">
-        <f>SEC_Comm!D13</f>
-        <v>TPAN</v>
-      </c>
-      <c r="C46" s="30" t="str">
-        <f>SEC_Comm!E13</f>
-        <v>Transport Passengers Aviation National</v>
-      </c>
-      <c r="D46" s="30" t="str">
-        <f>SEC_Comm!F13</f>
-        <v>Mpass-km</v>
-      </c>
-      <c r="E46" s="44">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="str">
-        <f>SEC_Comm!D14</f>
-        <v>TPAI</v>
-      </c>
-      <c r="C47" s="30" t="str">
-        <f>SEC_Comm!E14</f>
-        <v>Transport Passengers Aviation International</v>
-      </c>
-      <c r="D47" s="30" t="str">
-        <f>SEC_Comm!F14</f>
-        <v>Mpass-km</v>
-      </c>
-      <c r="E47" s="44">
-        <v>39336</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="str">
-        <f>SEC_Comm!D15</f>
-        <v>TPSN</v>
-      </c>
-      <c r="C48" s="30" t="str">
-        <f>SEC_Comm!E15</f>
-        <v>Transport Passengers Sea National</v>
-      </c>
-      <c r="D48" s="30" t="str">
-        <f>SEC_Comm!F15</f>
-        <v>Mpass-km</v>
-      </c>
-      <c r="E48" s="43">
-        <f>176079/1000</f>
-        <v>176.07900000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="30" t="str">
-        <f>SEC_Comm!D16</f>
-        <v>TPSI</v>
-      </c>
-      <c r="C49" s="30" t="str">
-        <f>SEC_Comm!E16</f>
-        <v>Transport Passengers Sea International</v>
-      </c>
-      <c r="D49" s="30" t="str">
-        <f>SEC_Comm!F16</f>
-        <v>Mpass-km</v>
-      </c>
-      <c r="E49" s="43">
-        <f>1462478/1000</f>
-        <v>1462.4780000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="30" t="str">
-        <f>SEC_Comm!D17</f>
-        <v>TFV</v>
-      </c>
-      <c r="C50" s="30" t="str">
-        <f>SEC_Comm!E17</f>
-        <v xml:space="preserve">Transport Freight Vans </v>
-      </c>
-      <c r="D50" s="30" t="str">
-        <f>SEC_Comm!F17</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E50" s="30">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="str">
-        <f>SEC_Comm!D18</f>
-        <v>TFT</v>
-      </c>
-      <c r="C51" s="30" t="str">
-        <f>SEC_Comm!E18</f>
-        <v xml:space="preserve">Transport Freight Truck </v>
-      </c>
-      <c r="D51" s="30" t="str">
-        <f>SEC_Comm!F18</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E51" s="43">
-        <v>19750.869609000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="str">
-        <f>SEC_Comm!D19</f>
-        <v>TFR</v>
-      </c>
-      <c r="C52" s="30" t="str">
-        <f>SEC_Comm!E19</f>
-        <v>Transport Freight Rail</v>
-      </c>
-      <c r="D52" s="30" t="str">
-        <f>SEC_Comm!F19</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E52" s="30">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="str">
-        <f>SEC_Comm!D20</f>
-        <v>TFAI</v>
-      </c>
-      <c r="C53" s="30" t="str">
-        <f>SEC_Comm!E20</f>
-        <v>Transport Freight Aviation International</v>
-      </c>
-      <c r="D53" s="30" t="str">
-        <f>SEC_Comm!F20</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E53" s="30">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="30" t="str">
-        <f>SEC_Comm!D21</f>
-        <v>TFSN</v>
-      </c>
-      <c r="C54" s="30" t="str">
-        <f>SEC_Comm!E21</f>
-        <v>Transport Freight Sea National</v>
-      </c>
-      <c r="D54" s="30" t="str">
-        <f>SEC_Comm!F21</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E54" s="30">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="30" t="str">
-        <f>SEC_Comm!D22</f>
-        <v>TFSI</v>
-      </c>
-      <c r="C55" s="30" t="str">
-        <f>SEC_Comm!E22</f>
-        <v>Transport Freight Sea International</v>
-      </c>
-      <c r="D55" s="30" t="str">
-        <f>SEC_Comm!F22</f>
-        <v>Mton-km</v>
-      </c>
-      <c r="E55" s="43">
-        <v>48140.793353094996</v>
+      <c r="E38" s="43">
+        <v>3051.29</v>
       </c>
     </row>
   </sheetData>
@@ -4656,79 +3767,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G13"/>
+  <dimension ref="A4:D13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C9" s="47">
         <v>74.099999999999994</v>
@@ -4736,35 +3824,22 @@
       <c r="D9" s="47">
         <v>69.3</v>
       </c>
-      <c r="E9" s="47">
-        <v>56.1</v>
-      </c>
-      <c r="F9" s="47">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="G9" s="47">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikkel Simonsen\TIMES-DK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jactat\Documents\Models\TIMES-Shire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="-15" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="1"/>
+    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t>CommName</t>
   </si>
@@ -896,9 +896,6 @@
     <t>TRACO2</t>
   </si>
   <si>
-    <t>CO2 Transport (no aviation and navigation)</t>
-  </si>
-  <si>
     <t>kt</t>
   </si>
   <si>
@@ -1058,84 +1055,6 @@
     <t>ELCC</t>
   </si>
   <si>
-    <t>TRADSBL1</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 1- TRA</t>
-  </si>
-  <si>
-    <t>TRADSBL2</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 2- TRA</t>
-  </si>
-  <si>
-    <t>TRADSBL3</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Diesel &amp; Biodiesel - Level 3- TRA</t>
-  </si>
-  <si>
-    <t>TRAGSBL1</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 1 - TRA</t>
-  </si>
-  <si>
-    <t>TRAGSBL2</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 2 - TRA</t>
-  </si>
-  <si>
-    <t>TRAGSBL3</t>
-  </si>
-  <si>
-    <t>Blended Fuel - Gasoline &amp; Bioethanol - Level 3 - TRA</t>
-  </si>
-  <si>
-    <t>FT-TRADSBLD1</t>
-  </si>
-  <si>
-    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 1</t>
-  </si>
-  <si>
-    <t>FT-TRADSBLD2</t>
-  </si>
-  <si>
-    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 2</t>
-  </si>
-  <si>
-    <t>FT-TRADSBLD3</t>
-  </si>
-  <si>
-    <t>Fuel Technology Diesel &amp; Biodiesel Blending - Level 3</t>
-  </si>
-  <si>
-    <t>FT-TRAGSBLD1</t>
-  </si>
-  <si>
-    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 1</t>
-  </si>
-  <si>
-    <t>FT-TRAGSBLD2</t>
-  </si>
-  <si>
-    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 2</t>
-  </si>
-  <si>
-    <t>FT-TRAGSBLD3</t>
-  </si>
-  <si>
-    <t>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 3</t>
-  </si>
-  <si>
-    <t>TRADSB</t>
-  </si>
-  <si>
-    <t>TRAGSB</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -1151,46 +1070,19 @@
     <t>Share~UP~0</t>
   </si>
   <si>
-    <t>FT-TRADSB</t>
-  </si>
-  <si>
-    <t>Fuel Technology Biodiesel TRA</t>
-  </si>
-  <si>
-    <t>Fuel Technology Bioethanol TRA</t>
-  </si>
-  <si>
-    <t>FT-TRAGSB</t>
-  </si>
-  <si>
-    <t>Biodiesel TRA</t>
-  </si>
-  <si>
-    <t>Bioethanol TRA</t>
-  </si>
-  <si>
-    <t>DSB2</t>
-  </si>
-  <si>
-    <t>GSB2</t>
-  </si>
-  <si>
-    <t>Biodiesel second generation</t>
-  </si>
-  <si>
-    <t>Gbioethanol second generation</t>
+    <t>CO2 Transport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
-    <numFmt numFmtId="185" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1254,12 +1146,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="53"/>
       <name val="Arial"/>
@@ -1274,28 +1160,8 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1451,12 +1317,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1469,7 +1335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,7 +1353,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,28 +1374,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,26 +1906,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:J25"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2068,13 +1934,13 @@
       </c>
       <c r="C1" s="40"/>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +1953,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -2100,7 +1966,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +1995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>46</v>
       </c>
@@ -2158,7 +2024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>55</v>
       </c>
@@ -2167,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>57</v>
@@ -2177,14 +2043,14 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="2"/>
       <c r="D11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>57</v>
@@ -2194,16 +2060,16 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>157</v>
+      <c r="D12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>61</v>
@@ -2213,14 +2079,14 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>61</v>
@@ -2230,14 +2096,14 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="22" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>61</v>
@@ -2245,198 +2111,28 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="22" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2449,50 +2145,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
@@ -2538,247 +2234,111 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2791,49 +2351,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R38"/>
+  <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="E6" s="6"/>
@@ -2844,7 +2404,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
@@ -2855,7 +2415,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>1</v>
       </c>
@@ -2869,46 +2429,46 @@
         <v>6</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="K8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>94</v>
-      </c>
       <c r="N8" s="38" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="O8" s="52" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="R8" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
         <v>48</v>
       </c>
@@ -2922,28 +2482,28 @@
         <v>36</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="M9" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
@@ -2951,32 +2511,32 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
     </row>
-    <row r="10" spans="2:18" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
@@ -2984,7 +2544,7 @@
       <c r="Q10" s="49"/>
       <c r="R10" s="49"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="str">
         <f>SEC_Processes!D9</f>
         <v>TPCDSL1E</v>
@@ -2994,7 +2554,7 @@
         <v>Transport Passengers Car - Diesel Engine - Existing</v>
       </c>
       <c r="D11" s="22" t="str">
-        <f>SEC_Comm!D14</f>
+        <f>SEC_Comm!D12</f>
         <v>TRADSL</v>
       </c>
       <c r="E11" s="22" t="str">
@@ -3002,7 +2562,7 @@
         <v>TPC</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="44">
         <f>1/2.69323220751296*10^3</f>
@@ -3023,7 +2583,7 @@
       <c r="L11" s="41">
         <v>433.7</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
         <v>1.55</v>
       </c>
       <c r="N11" s="22"/>
@@ -3032,7 +2592,7 @@
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="str">
         <f>SEC_Processes!D10</f>
         <v>TPCGSL1E</v>
@@ -3042,7 +2602,7 @@
         <v>Transport Passengers Car - Gasoline Engine - Existing</v>
       </c>
       <c r="D12" s="22" t="str">
-        <f>SEC_Comm!D15</f>
+        <f>SEC_Comm!D13</f>
         <v>TRAGSL</v>
       </c>
       <c r="E12" s="22" t="str">
@@ -3050,7 +2610,7 @@
         <v>TPC</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="44">
         <v>392</v>
@@ -3073,7 +2633,7 @@
         <f>1686349/1000</f>
         <v>1686.3489999999999</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="41">
         <f>M11</f>
         <v>1.55</v>
       </c>
@@ -3083,7 +2643,7 @@
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="str">
         <f>SEC_Processes!D11</f>
         <v>TPRELC1E</v>
@@ -3093,7 +2653,7 @@
         <v>Transport Passengers Rail - Electric - Existing</v>
       </c>
       <c r="D13" s="22" t="str">
-        <f>SEC_Comm!D16</f>
+        <f>SEC_Comm!D14</f>
         <v>TRAELC</v>
       </c>
       <c r="E13" s="22" t="str">
@@ -3101,7 +2661,7 @@
         <v>TPR</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="44">
         <f>1/48.0351078270692*10^3</f>
@@ -3131,7 +2691,7 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="str">
         <f>SEC_Processes!D12</f>
         <v>FT-TRADSL</v>
@@ -3141,11 +2701,11 @@
         <v>Fuel Technology Diesel TRA</v>
       </c>
       <c r="D14" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D14,3)</f>
+        <f>RIGHT(SEC_Comm!D12,3)</f>
         <v>DSL</v>
       </c>
       <c r="E14" s="22" t="str">
-        <f>SEC_Comm!D14</f>
+        <f>SEC_Comm!D12</f>
         <v>TRADSL</v>
       </c>
       <c r="F14" s="22"/>
@@ -3166,7 +2726,7 @@
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="str">
         <f>SEC_Processes!D13</f>
         <v>FT-TRAGSL</v>
@@ -3176,11 +2736,11 @@
         <v>Fuel Technology Gasoline TRA</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>RIGHT(SEC_Comm!D15,3)</f>
+        <f>RIGHT(SEC_Comm!D13,3)</f>
         <v>GSL</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>SEC_Comm!D15</f>
+        <f>SEC_Comm!D13</f>
         <v>TRAGSL</v>
       </c>
       <c r="F15" s="22"/>
@@ -3201,7 +2761,7 @@
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="str">
         <f>SEC_Processes!D14</f>
         <v>FT-TRAELC</v>
@@ -3211,10 +2771,10 @@
         <v>Fuel Technology Electricity TRA</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="22" t="str">
-        <f>SEC_Comm!D16</f>
+        <f>SEC_Comm!D14</f>
         <v>TRAELC</v>
       </c>
       <c r="F16" s="22"/>
@@ -3235,525 +2795,75 @@
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>FT-TRADSB</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>SEC_Processes!E15</f>
-        <v>Fuel Technology Biodiesel TRA</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
-        <v>100</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="str">
-        <f>SEC_Processes!D16</f>
-        <v>FT-TRAGSB</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>SEC_Processes!E16</f>
-        <v>Fuel Technology Bioethanol TRA</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
-        <v>100</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="str">
-        <f>SEC_Processes!D17</f>
-        <v>FT-TRADSBLD1</v>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f>SEC_Processes!E17</f>
-        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 1</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
-        <v>100</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22">
-        <v>2015</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="30">
+    <row r="18" spans="2:5" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="B18" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="Q20" s="30">
-        <v>5</v>
-      </c>
-      <c r="R20" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="str">
-        <f>SEC_Processes!D18</f>
-        <v>FT-TRADSBLD2</v>
-      </c>
-      <c r="C21" s="22" t="str">
-        <f>SEC_Processes!E18</f>
-        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 2</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <v>100</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22">
-        <v>2020</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="30">
-        <v>0</v>
-      </c>
-      <c r="P22" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="Q22" s="30">
-        <v>5</v>
-      </c>
-      <c r="R22" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="str">
-        <f>SEC_Processes!D19</f>
-        <v>FT-TRADSBLD3</v>
-      </c>
-      <c r="C23" s="22" t="str">
-        <f>SEC_Processes!E19</f>
-        <v>Fuel Technology Diesel &amp; Biodiesel Blending - Level 3</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <v>100</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22">
-        <v>2035</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="30">
-        <v>0</v>
-      </c>
-      <c r="P24" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>5</v>
-      </c>
-      <c r="R24" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="str">
-        <f>SEC_Processes!D20</f>
-        <v>FT-TRAGSBLD1</v>
-      </c>
-      <c r="C25" s="22" t="str">
-        <f>SEC_Processes!E20</f>
-        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 1</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22">
-        <v>100</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22">
-        <v>2015</v>
-      </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="30">
-        <v>0</v>
-      </c>
-      <c r="P26" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="Q26" s="30">
-        <v>5</v>
-      </c>
-      <c r="R26" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="str">
-        <f>SEC_Processes!D21</f>
-        <v>FT-TRAGSBLD2</v>
-      </c>
-      <c r="C27" s="22" t="str">
-        <f>SEC_Processes!E21</f>
-        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 2</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
-        <v>100</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22">
-        <v>2020</v>
-      </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="30">
-        <v>0</v>
-      </c>
-      <c r="P28" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="Q28" s="30">
-        <v>5</v>
-      </c>
-      <c r="R28" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="str">
-        <f>SEC_Processes!D22</f>
-        <v>FT-TRAGSBLD3</v>
-      </c>
-      <c r="C29" s="22" t="str">
-        <f>SEC_Processes!E22</f>
-        <v>Fuel Technology Gasoline &amp; Bioethanol Blending - Level 3</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22">
-        <v>100</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22">
-        <v>2035</v>
-      </c>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="30">
-        <v>5</v>
-      </c>
-      <c r="R30" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="28" t="s">
+      <c r="C21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="28" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="str">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="str">
         <f>SEC_Comm!D10</f>
         <v>TPC</v>
       </c>
-      <c r="C37" s="30" t="str">
+      <c r="C23" s="30" t="str">
         <f>SEC_Comm!E10</f>
         <v>Transport Passengers Car Demand</v>
       </c>
-      <c r="D37" s="30" t="str">
+      <c r="D23" s="30" t="str">
         <f>SEC_Comm!F10</f>
         <v>Mpass-km</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E23" s="43">
         <v>50517.5</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="str">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="str">
         <f>SEC_Comm!D11</f>
         <v>TPR</v>
       </c>
-      <c r="C38" s="30" t="str">
+      <c r="C24" s="30" t="str">
         <f>SEC_Comm!E11</f>
         <v>Transport Passengers Train</v>
       </c>
-      <c r="D38" s="30" t="str">
+      <c r="D24" s="30" t="str">
         <f>SEC_Comm!F11</f>
         <v>Mpass-km</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E24" s="43">
         <v>3051.29</v>
       </c>
     </row>
@@ -3769,30 +2879,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
@@ -3800,21 +2910,21 @@
         <v>59</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>63</v>
       </c>
@@ -3825,18 +2935,18 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>CommName</t>
   </si>
@@ -873,9 +873,6 @@
   </si>
   <si>
     <t>TPC</t>
-  </si>
-  <si>
-    <t>Mpass-km</t>
   </si>
   <si>
     <t>NRG</t>
@@ -1909,7 +1906,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2033,10 +2030,10 @@
         <v>56</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -2047,13 +2044,13 @@
       <c r="B11" s="22"/>
       <c r="C11" s="2"/>
       <c r="D11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>107</v>
-      </c>
       <c r="F11" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -2062,17 +2059,17 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -2083,13 +2080,13 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="F13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -2100,34 +2097,34 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -2236,20 +2233,20 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -2257,16 +2254,16 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -2274,35 +2271,35 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -2310,16 +2307,16 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -2327,16 +2324,16 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -2429,43 +2426,43 @@
         <v>6</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="K8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>93</v>
-      </c>
       <c r="N8" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="P8" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="Q8" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="R8" s="52" t="s">
         <v>120</v>
-      </c>
-      <c r="R8" s="52" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2482,28 +2479,28 @@
         <v>36</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>85</v>
-      </c>
       <c r="M9" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
@@ -2513,30 +2510,30 @@
     </row>
     <row r="10" spans="2:18" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
@@ -2562,7 +2559,7 @@
         <v>TPC</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="44">
         <f>1/2.69323220751296*10^3</f>
@@ -2610,7 +2607,7 @@
         <v>TPC</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="44">
         <v>392</v>
@@ -2661,7 +2658,7 @@
         <v>TPR</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="44">
         <f>1/48.0351078270692*10^3</f>
@@ -2771,7 +2768,7 @@
         <v>Fuel Technology Electricity TRA</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="22" t="str">
         <f>SEC_Comm!D14</f>
@@ -2810,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -2844,7 +2841,7 @@
       </c>
       <c r="D23" s="30" t="str">
         <f>SEC_Comm!F10</f>
-        <v>Mpass-km</v>
+        <v>Mpkm</v>
       </c>
       <c r="E23" s="43">
         <v>50517.5</v>
@@ -2861,7 +2858,7 @@
       </c>
       <c r="D24" s="30" t="str">
         <f>SEC_Comm!F11</f>
-        <v>Mpass-km</v>
+        <v>Mpkm</v>
       </c>
       <c r="E24" s="43">
         <v>3051.29</v>
@@ -2880,7 +2877,7 @@
   <dimension ref="A4:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2907,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2918,15 +2915,15 @@
         <v>39</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="47">
         <v>74.099999999999994</v>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jactat\Documents\Models\TIMES-Shire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Shire\Course_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="9552" yWindow="-12" windowWidth="9600" windowHeight="11640" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -658,6 +658,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
+    <author>Jacopo Tattini</author>
   </authors>
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0">
@@ -671,6 +672,30 @@
           </rPr>
           <t>With this character *, this column is ignored from VEDA.
 It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jacopo Tattini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The milage (NCAP_AFA) for gasoline and diesel car is the same</t>
         </r>
       </text>
     </comment>
@@ -1022,9 +1047,6 @@
     <t>TPR</t>
   </si>
   <si>
-    <t>Transport Passengers Train</t>
-  </si>
-  <si>
     <t>TRAELC</t>
   </si>
   <si>
@@ -1068,18 +1090,22 @@
   </si>
   <si>
     <t>CO2 Transport</t>
+  </si>
+  <si>
+    <t>Transport Passengers Train Demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1179,8 +1205,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,6 +1265,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,10 +1339,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1315,15 +1364,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1335,13 +1379,9 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1372,10 +1412,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1392,10 +1428,34 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,7 +1966,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1926,210 +1986,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E14" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2160,182 +2220,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="41" t="s">
         <v>41</v>
       </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="49" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E14" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2350,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2374,494 +2445,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="2:18" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="G7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="P8" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="Q8" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="R8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="R8" s="52" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="9" spans="2:18" ht="42.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="2:18" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="17" t="str">
         <f>SEC_Processes!D9</f>
         <v>TPCDSL1E</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="17" t="str">
         <f>SEC_Processes!E9</f>
         <v>Transport Passengers Car - Diesel Engine - Existing</v>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="17" t="str">
         <f>SEC_Comm!D12</f>
         <v>TRADSL</v>
       </c>
-      <c r="E11" s="22" t="str">
+      <c r="E11" s="17" t="str">
         <f>SEC_Comm!$D$10</f>
         <v>TPC</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="44">
-        <f>1/2.69323220751296*10^3</f>
-        <v>371.30106984850022</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="G11" s="53"/>
+      <c r="H11" s="34">
         <v>4.655E-5</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="17">
         <v>12</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K11" s="44">
-        <v>15373.2</v>
-      </c>
-      <c r="L11" s="41">
-        <v>433.7</v>
-      </c>
-      <c r="M11" s="41">
-        <v>1.55</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="55">
+        <v>728.42</v>
+      </c>
+      <c r="M11" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="17" t="str">
         <f>SEC_Processes!D10</f>
         <v>TPCGSL1E</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="17" t="str">
         <f>SEC_Processes!E10</f>
         <v>Transport Passengers Car - Gasoline Engine - Existing</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="17" t="str">
         <f>SEC_Comm!D13</f>
         <v>TRAGSL</v>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="17" t="str">
         <f>E11</f>
         <v>TPC</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="44">
-        <v>392</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="G12" s="54">
+        <v>368</v>
+      </c>
+      <c r="H12" s="34">
         <f>H11</f>
         <v>4.655E-5</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="17">
         <v>12</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K12" s="44">
-        <f>K11</f>
-        <v>15373.2</v>
-      </c>
-      <c r="L12" s="41">
-        <f>1686349/1000</f>
-        <v>1686.3489999999999</v>
-      </c>
-      <c r="M12" s="41">
+      <c r="K12" s="53"/>
+      <c r="L12" s="55">
+        <v>1426.12</v>
+      </c>
+      <c r="M12" s="55">
         <f>M11</f>
-        <v>1.55</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="17" t="str">
         <f>SEC_Processes!D11</f>
         <v>TPRELC1E</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="17" t="str">
         <f>SEC_Processes!E11</f>
         <v>Transport Passengers Rail - Electric - Existing</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="17" t="str">
         <f>SEC_Comm!D14</f>
         <v>TRAELC</v>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="17" t="str">
         <f>SEC_Comm!D11</f>
         <v>TPR</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="44">
-        <f>1/48.0351078270692*10^3</f>
-        <v>20.818106698127792</v>
-      </c>
-      <c r="H13" s="45">
+      <c r="G13" s="53"/>
+      <c r="H13" s="34">
         <v>3.8969000000000005E-3</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="17">
         <v>30</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K13" s="22">
-        <v>145000</v>
-      </c>
-      <c r="L13" s="51">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="M13" s="42">
-        <v>74.36</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="K13" s="56">
+        <v>134000</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="57">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="17" t="str">
         <f>SEC_Processes!D12</f>
         <v>FT-TRADSL</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="17" t="str">
         <f>SEC_Processes!E12</f>
         <v>Fuel Technology Diesel TRA</v>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="17" t="str">
         <f>RIGHT(SEC_Comm!D12,3)</f>
         <v>DSL</v>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="17" t="str">
         <f>SEC_Comm!D12</f>
         <v>TRADSL</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <v>1</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <v>100</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="17" t="str">
         <f>SEC_Processes!D13</f>
         <v>FT-TRAGSL</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="17" t="str">
         <f>SEC_Processes!E13</f>
         <v>Fuel Technology Gasoline TRA</v>
       </c>
-      <c r="D15" s="22" t="str">
+      <c r="D15" s="17" t="str">
         <f>RIGHT(SEC_Comm!D13,3)</f>
         <v>GSL</v>
       </c>
-      <c r="E15" s="22" t="str">
+      <c r="E15" s="17" t="str">
         <f>SEC_Comm!D13</f>
         <v>TRAGSL</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17">
         <v>100</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="17" t="str">
         <f>SEC_Processes!D14</f>
         <v>FT-TRAELC</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="17" t="str">
         <f>SEC_Processes!E14</f>
         <v>Fuel Technology Electricity TRA</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="22" t="str">
+      <c r="D16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="17" t="str">
         <f>SEC_Comm!D14</f>
         <v>TRAELC</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
         <v>1</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
         <v>100</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="18" spans="2:5" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="str">
+      <c r="B23" s="23" t="str">
         <f>SEC_Comm!D10</f>
         <v>TPC</v>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="23" t="str">
         <f>SEC_Comm!E10</f>
         <v>Transport Passengers Car Demand</v>
       </c>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="23" t="str">
         <f>SEC_Comm!F10</f>
         <v>Mpkm</v>
       </c>
-      <c r="E23" s="43">
-        <v>50517.5</v>
+      <c r="E23" s="58">
+        <v>53076.015630000002</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="str">
+      <c r="B24" s="23" t="str">
         <f>SEC_Comm!D11</f>
         <v>TPR</v>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C24" s="23" t="str">
         <f>SEC_Comm!E11</f>
-        <v>Transport Passengers Train</v>
-      </c>
-      <c r="D24" s="30" t="str">
+        <v>Transport Passengers Train Demand</v>
+      </c>
+      <c r="D24" s="23" t="str">
         <f>SEC_Comm!F11</f>
         <v>Mpkm</v>
       </c>
-      <c r="E24" s="43">
-        <v>3051.29</v>
+      <c r="E24" s="58">
+        <v>3710.9826000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2888,59 +2945,59 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="36">
         <v>74.099999999999994</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="36">
         <v>69.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -1339,7 +1339,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,12 +1450,13 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,7 +2423,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2633,9 @@
       <c r="F11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="60">
+        <v>394</v>
+      </c>
       <c r="H11" s="34">
         <v>4.655E-5</v>
       </c>
@@ -2642,11 +2645,13 @@
       <c r="J11" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="55">
+      <c r="K11" s="53">
+        <v>16423</v>
+      </c>
+      <c r="L11" s="56">
         <v>728.42</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="56">
         <v>1.5</v>
       </c>
       <c r="N11" s="17"/>
@@ -2675,7 +2680,7 @@
       <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="59">
         <v>368</v>
       </c>
       <c r="H12" s="34">
@@ -2688,11 +2693,14 @@
       <c r="J12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55">
+      <c r="K12" s="53">
+        <f>K11</f>
+        <v>16423</v>
+      </c>
+      <c r="L12" s="56">
         <v>1426.12</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="56">
         <f>M11</f>
         <v>1.5</v>
       </c>
@@ -2722,7 +2730,9 @@
       <c r="F13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="53">
+        <v>23.5</v>
+      </c>
       <c r="H13" s="34">
         <v>3.8969000000000005E-3</v>
       </c>
@@ -2732,10 +2742,12 @@
       <c r="J13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="58">
         <v>134000</v>
       </c>
-      <c r="L13" s="59"/>
+      <c r="L13" s="55">
+        <v>0.35099999999999998</v>
+      </c>
       <c r="M13" s="57">
         <v>78.900000000000006</v>
       </c>
@@ -2900,7 +2912,7 @@
         <f>SEC_Comm!F10</f>
         <v>Mpkm</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>53076.015630000002</v>
       </c>
     </row>
@@ -2917,7 +2929,7 @@
         <f>SEC_Comm!F11</f>
         <v>Mpkm</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="54">
         <v>3710.9826000000003</v>
       </c>
     </row>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -1219,7 +1219,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,12 +1271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,13 +1444,13 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2633,9 +2627,7 @@
       <c r="F11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="60">
-        <v>394</v>
-      </c>
+      <c r="G11" s="59"/>
       <c r="H11" s="34">
         <v>4.655E-5</v>
       </c>
@@ -2645,13 +2637,11 @@
       <c r="J11" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K11" s="53">
-        <v>16423</v>
-      </c>
-      <c r="L11" s="56">
+      <c r="K11" s="53"/>
+      <c r="L11" s="55">
         <v>728.42</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="55">
         <v>1.5</v>
       </c>
       <c r="N11" s="17"/>
@@ -2680,7 +2670,7 @@
       <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <v>368</v>
       </c>
       <c r="H12" s="34">
@@ -2693,14 +2683,11 @@
       <c r="J12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K12" s="53">
-        <f>K11</f>
-        <v>16423</v>
-      </c>
-      <c r="L12" s="56">
+      <c r="K12" s="53"/>
+      <c r="L12" s="55">
         <v>1426.12</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="55">
         <f>M11</f>
         <v>1.5</v>
       </c>
@@ -2730,9 +2717,7 @@
       <c r="F13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="53">
-        <v>23.5</v>
-      </c>
+      <c r="G13" s="53"/>
       <c r="H13" s="34">
         <v>3.8969000000000005E-3</v>
       </c>
@@ -2742,13 +2727,11 @@
       <c r="J13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="57">
         <v>134000</v>
       </c>
-      <c r="L13" s="55">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="M13" s="57">
+      <c r="L13" s="54"/>
+      <c r="M13" s="56">
         <v>78.900000000000006</v>
       </c>
       <c r="N13" s="17"/>
@@ -2912,7 +2895,7 @@
         <f>SEC_Comm!F10</f>
         <v>Mpkm</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="60">
         <v>53076.015630000002</v>
       </c>
     </row>
@@ -2929,7 +2912,7 @@
         <f>SEC_Comm!F11</f>
         <v>Mpkm</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="60">
         <v>3710.9826000000003</v>
       </c>
     </row>

--- a/VT_SHR_TRA_V01.xlsx
+++ b/VT_SHR_TRA_V01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Shire\Course_Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jactat\Documents\Models\TIMES-Shire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1219,7 +1219,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,12 +1271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,13 +1444,13 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2423,7 +2417,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2627,7 @@
       <c r="F11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="59">
         <v>394</v>
       </c>
       <c r="H11" s="34">
@@ -2648,10 +2642,10 @@
       <c r="K11" s="53">
         <v>16423</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="55">
         <v>728.42</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="55">
         <v>1.5</v>
       </c>
       <c r="N11" s="17"/>
@@ -2680,7 +2674,7 @@
       <c r="F12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="58">
         <v>368</v>
       </c>
       <c r="H12" s="34">
@@ -2697,10 +2691,10 @@
         <f>K11</f>
         <v>16423</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="55">
         <v>1426.12</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="55">
         <f>M11</f>
         <v>1.5</v>
       </c>
@@ -2742,13 +2736,13 @@
       <c r="J13" s="17">
         <v>1E-3</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="57">
         <v>134000</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="54">
         <v>0.35099999999999998</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="56">
         <v>78.900000000000006</v>
       </c>
       <c r="N13" s="17"/>
@@ -2912,7 +2906,7 @@
         <f>SEC_Comm!F10</f>
         <v>Mpkm</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="60">
         <v>53076.015630000002</v>
       </c>
     </row>
@@ -2929,7 +2923,7 @@
         <f>SEC_Comm!F11</f>
         <v>Mpkm</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="60">
         <v>3710.9826000000003</v>
       </c>
     </row>
